--- a/cbrunner/Parameters/Parameters_ClimateByBGC.xlsx
+++ b/cbrunner/Parameters/Parameters_ClimateByBGC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4148B661-2D69-4708-9354-BFCE2174D5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0924F33F-CA65-4DC9-A434-D9B5B9CE2D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="288" windowWidth="6840" windowHeight="10704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -92,15 +92,21 @@
   </si>
   <si>
     <t>WS</t>
+  </si>
+  <si>
+    <t>SI VRI</t>
+  </si>
+  <si>
+    <t>Proj_Age_1 VRI</t>
+  </si>
+  <si>
+    <t>SI ByBGC Zone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,15 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -479,15 +482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B2:C17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,182 +500,351 @@
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>2.7257610632778242</v>
-      </c>
-      <c r="C2" s="3">
-        <v>196.3377579845347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.7944399260628452</v>
+      </c>
+      <c r="C2" s="2">
+        <v>193.3518131406486</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4.8720047120810799</v>
+      </c>
+      <c r="E2" s="2">
+        <v>198.01223323811121</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>2.249723470726817</v>
-      </c>
-      <c r="C3" s="3">
-        <v>192.61390893083549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.1748465373641892</v>
+      </c>
+      <c r="C3" s="2">
+        <v>175.26092970978991</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.4688751646282254</v>
+      </c>
+      <c r="E3" s="2">
+        <v>158.46965330412979</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>2.2146336038184988</v>
-      </c>
-      <c r="C4" s="3">
-        <v>197.84246666248831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.0779117137582999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>185.6939893847923</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.2965769840841466</v>
+      </c>
+      <c r="E4" s="2">
+        <v>146.39694635949971</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>4.3177678624567823</v>
-      </c>
-      <c r="C5" s="3">
-        <v>184.3661170156166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.1983721031855863</v>
+      </c>
+      <c r="C5" s="2">
+        <v>193.1606636272268</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.512976807380972</v>
+      </c>
+      <c r="E5" s="2">
+        <v>242.60726086259891</v>
+      </c>
+      <c r="F5" s="2">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>5.2098378941900938</v>
-      </c>
-      <c r="C6" s="3">
-        <v>159.37425119188799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.991686496495602</v>
+      </c>
+      <c r="C6" s="2">
+        <v>118.390827655099</v>
+      </c>
+      <c r="D6" s="2">
+        <v>13.569867339668329</v>
+      </c>
+      <c r="E6" s="2">
+        <v>105.0204952449018</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>5.029295276406339</v>
-      </c>
-      <c r="C7" s="3">
-        <v>97.901415304857878</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.1672754687486924</v>
+      </c>
+      <c r="C7" s="2">
+        <v>91.0535111220711</v>
+      </c>
+      <c r="D7" s="2">
+        <v>11.54170619942996</v>
+      </c>
+      <c r="E7" s="2">
+        <v>93.247438914291919</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>3.11406238030139</v>
-      </c>
-      <c r="C8" s="3">
-        <v>150.08060410629909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.5104784784448899</v>
+      </c>
+      <c r="C8" s="2">
+        <v>122.1365263448613</v>
+      </c>
+      <c r="D8" s="2">
+        <v>15.558595512056289</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100.408119761297</v>
+      </c>
+      <c r="F8" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>4.021361246461467</v>
-      </c>
-      <c r="C9" s="3">
-        <v>121.07439802851771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.0966238343418508</v>
+      </c>
+      <c r="C9" s="2">
+        <v>130.76094626235439</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16.087946290645871</v>
+      </c>
+      <c r="E9" s="2">
+        <v>140.73492133124211</v>
+      </c>
+      <c r="F9" s="2">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>4.0035361325816652</v>
-      </c>
-      <c r="C10" s="3">
-        <v>139.62175070867019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.4066651204204721</v>
+      </c>
+      <c r="C10" s="2">
+        <v>180.9056934561786</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.4582934462036281</v>
+      </c>
+      <c r="E10" s="2">
+        <v>160.77369938916249</v>
+      </c>
+      <c r="F10" s="2">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>3.9637480905878988</v>
-      </c>
-      <c r="C11" s="3">
-        <v>93.190294974966491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.3942362088325986</v>
+      </c>
+      <c r="C11" s="2">
+        <v>60.828473773465461</v>
+      </c>
+      <c r="D11" s="2">
+        <v>13.898159953919709</v>
+      </c>
+      <c r="E11" s="2">
+        <v>114.0065953122113</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>4.8583330504158884</v>
-      </c>
-      <c r="C12" s="3">
-        <v>122.03890680699369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.6146478834516094</v>
+      </c>
+      <c r="C12" s="2">
+        <v>178.0459787556704</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15.17788123025519</v>
+      </c>
+      <c r="E12" s="2">
+        <v>202.8714727442952</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>5.2925016259568878</v>
-      </c>
-      <c r="C13" s="3">
-        <v>88.037311359996067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.8887820270372488</v>
+      </c>
+      <c r="C13" s="2">
+        <v>25.84834502209879</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9.7679184253058704</v>
+      </c>
+      <c r="E13" s="2">
+        <v>131.4086061012114</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>4.2631224535795784</v>
-      </c>
-      <c r="C14" s="3">
-        <v>108.8922016094518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.7729261777815841</v>
+      </c>
+      <c r="C14" s="2">
+        <v>124.36564244057649</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11.019533180603149</v>
+      </c>
+      <c r="E14" s="2">
+        <v>104.8831844336059</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>6.3974096970884391</v>
-      </c>
-      <c r="C15" s="3">
-        <v>99.24524054741714</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.6516145484683307</v>
+      </c>
+      <c r="C15" s="2">
+        <v>76.943450957891045</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22.176669508994909</v>
+      </c>
+      <c r="E15" s="2">
+        <v>107.8109081635906</v>
+      </c>
+      <c r="F15" s="2">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>2.9133928938180329</v>
-      </c>
-      <c r="C16" s="3">
-        <v>166.118059834326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.4519938409516318</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22.06963951452207</v>
+      </c>
+      <c r="D16" s="2">
+        <v>11.12259827893207</v>
+      </c>
+      <c r="E16" s="2">
+        <v>129.370333917034</v>
+      </c>
+      <c r="F16" s="2">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>4.388740015441412</v>
-      </c>
-      <c r="C17" s="3">
-        <v>136.69511429743091</v>
-      </c>
+        <v>2.5403869108519199</v>
+      </c>
+      <c r="C17" s="2">
+        <v>196.01885955937519</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3.6810956599279638</v>
+      </c>
+      <c r="E17" s="2">
+        <v>149.52315241115889</v>
+      </c>
+      <c r="F17" s="2">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
